--- a/data/trans_camb/P9_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 6,85</t>
+          <t>-7,07; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,33</t>
+          <t>-7,91; 7,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,58</t>
+          <t>-5,54; 5,06</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-0,09%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 8,64</t>
+          <t>-7,93; 10,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 6,88</t>
+          <t>-9,01; 9,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 5,73</t>
+          <t>-6,36; 6,13</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 8,62</t>
+          <t>-9,71; 10,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 9,0</t>
+          <t>-10,53; 8,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 6,67</t>
+          <t>-6,57; 6,75</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 11,17</t>
+          <t>-11,49; 13,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 12,66</t>
+          <t>-12,42; 10,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 9,01</t>
+          <t>-7,84; 8,65</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 23,98</t>
+          <t>-37,57; 37,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 13,28</t>
+          <t>-18,04; 19,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 15,68</t>
+          <t>-26,04; 23,58</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 45,62</t>
+          <t>-56,76; 100,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 18,78</t>
+          <t>-19,92; 28,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 24,52</t>
+          <t>-34,06; 45,69</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,52</t>
+          <t>-8,58; 8,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 4,86</t>
+          <t>-5,41; 5,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,53</t>
+          <t>-4,96; 4,88</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-0,31%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,58</t>
+          <t>-10,28; 11,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,45</t>
+          <t>-6,45; 7,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,92</t>
+          <t>-6,0; 6,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7600910534884209</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8012028806448357</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7841296026548372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 8,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 7,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 5,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.47807901423363</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.628753626141987</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.466039800594053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.679918719285155</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.419939113539472</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.955939391796524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 10,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 9,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 6,13</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.008774441218395374</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.009693809896479999</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.009283420739735579</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.07167912057014404</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.07591171103512388</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.05135986905306338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; 10,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 8,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; 6,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1052232575094067</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1092901134626288</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.07215488843381905</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,85%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.706484594316238</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.02117989024925659</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.8104342124393482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; 13,62</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 10,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 8,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.441225438463395</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.619267168254291</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.393596877693354</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.89154199291085</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.012509690360039</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.739443084276192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-37,57; 37,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,04; 19,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-26,04; 23,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.02126457241291867</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0002596503568759943</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01001076984606792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,51%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.08846812953791264</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1125727997687694</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06314156865081602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-56,76; 100,95</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,92; 28,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-34,06; 45,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1606909231590103</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1177045704176266</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.09998575926748576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.359508682337013</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.850360128820183</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.8469592842184848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 8,81</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 5,47</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 4,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-38.63386117509726</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.24904129345526</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-24.05010268053663</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>35.41262598781143</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>20.21563699850618</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>24.57236191759205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 11,74</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 7,01</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 6,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.04689925221139461</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02354764644800645</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.01318063870151968</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5748451311079074</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1725425200373605</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3099254842471996</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.000383179153952</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3022821565106464</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4887241522386883</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.100356752010112</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5768126967280685</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8174114330503968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.888064016752812</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.372560040200867</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.545281871263137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.684056301981304</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.507692090751117</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.897807794096356</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.01375879004412983</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.007049099516585231</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01009577356735273</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08335360264008312</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.05296081485113349</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0433031710168647</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1282882341256246</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.08258920304833009</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07560048826077113</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
